--- a/output/Termproject/7G/1D7G.xlsx
+++ b/output/Termproject/7G/1D7G.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\학부연구생\원자로이론\[로이론] TermProject\TermProject\output\Termproject\7G\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6504474C-E9FE-4E88-87A1-D0C505BF996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE8272F-7DDE-461B-BCCE-1A660A81414A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC4201B3-B83D-4BFB-8B98-70D9922A2338}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>group 1</t>
   </si>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>duration : 7.845s, iteration counts : 10798</t>
-  </si>
-  <si>
-    <t>Sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4780,11 +4776,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5114,309 +5110,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$101</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>156.80705629799996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>156.76900435799999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>156.69208147900002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>156.57820765900001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>156.42528189999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>156.23440530199997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>156.00566686400001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>155.737888688</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>155.43316957299999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>155.09060072099999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>154.710001331</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>154.29157320399997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>153.83521564</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>153.34194954200001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>152.81086510799992</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>152.24297323999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>151.63718323800001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>150.99560810400001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>150.31624583799999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>149.60111874199998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>148.84822671500004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>148.06057996000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>147.235301677</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>146.37537986699999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>145.47874573199999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>144.54751237200003</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>143.58067788900001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>142.57935454399998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>141.54237327799999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>140.471034441</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>139.36615994699997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>138.22696910399998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>137.05325494600001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>135.84735776200003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>134.60798748400001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>133.335447413</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>132.03067666999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>130.69267726500004</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>129.32456041</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>127.923327214</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>126.49204766999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>125.02874509599999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>123.53549829299999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>122.01232046</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>120.45928168799999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>118.87641378400001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>117.264776919</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>115.62443288</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>113.956011635</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>112.25949597099999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>110.53560484399998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>108.78471079999998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>107.00707457199999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>105.20324579599999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>103.37367478199999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>101.51873313099999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>99.638859901000018</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>97.73453717000001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>95.80621194199999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>93.854245027000005</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>91.87920678499998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>89.881443520000005</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>87.861425222999998</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>85.819818607000016</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>83.756781914000015</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>81.673070034000006</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>79.568949230999991</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>77.444884399999992</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>75.30154669400001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>73.139189510999998</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70.958482475999986</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>68.759651303999988</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>66.543303457999997</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>64.309970269000019</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>62.060009601000004</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>59.793867679999998</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>57.512010846999992</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>55.214965294999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>52.902994773000003</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>50.576595932999993</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>48.235531625999997</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>45.876274522300001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>43.4998445811</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>41.107031925400001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>38.698568121100003</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>36.275003962900009</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>33.837252474399996</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>31.386068053199995</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>28.922408915200002</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>26.447065425899996</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>23.9610963258</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>21.465437351399995</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>18.960929641479996</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>16.448622458919999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>13.929569350410002</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>11.404826255</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>8.8753351904399995</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>6.3421544964800001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>3.8063497232099999</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1.2689603384679999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5443,6 +5142,7 @@
         <c:axId val="1441623328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5685,6 +5385,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -6332,16 +6036,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>589989</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>197783</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>253812</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>96931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6688,15 +6392,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10357D7-A408-447F-B377-0604CBBBE322}">
-  <dimension ref="B1:W101"/>
+  <dimension ref="B1:V101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -6721,11 +6425,8 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -6750,12 +6451,8 @@
       <c r="I2">
         <v>9.8329800000000007E-4</v>
       </c>
-      <c r="J2">
-        <f>SUM(C2:I2)</f>
-        <v>156.80705629799996</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -6780,12 +6477,8 @@
       <c r="I3">
         <v>9.8305799999999998E-4</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J66" si="0">SUM(C3:I3)</f>
-        <v>156.76900435799999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -6810,12 +6503,8 @@
       <c r="I4">
         <v>9.8257899999999992E-4</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>156.69208147900002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4</v>
       </c>
@@ -6840,12 +6529,8 @@
       <c r="I5">
         <v>9.8185900000000007E-4</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>156.57820765900001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5</v>
       </c>
@@ -6870,12 +6555,8 @@
       <c r="I6">
         <v>9.8090000000000004E-4</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>156.42528189999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>6</v>
       </c>
@@ -6900,12 +6581,8 @@
       <c r="I7">
         <v>9.7970200000000005E-4</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>156.23440530199997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>7</v>
       </c>
@@ -6930,12 +6607,8 @@
       <c r="I8">
         <v>9.7826399999999996E-4</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>156.00566686400001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>8</v>
       </c>
@@ -6960,12 +6633,8 @@
       <c r="I9">
         <v>9.7658800000000002E-4</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>155.737888688</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>9</v>
       </c>
@@ -6990,12 +6659,8 @@
       <c r="I10">
         <v>9.7467300000000001E-4</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>155.43316957299999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10</v>
       </c>
@@ -7020,12 +6685,8 @@
       <c r="I11">
         <v>9.7252099999999995E-4</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>155.09060072099999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>11</v>
       </c>
@@ -7050,12 +6711,8 @@
       <c r="I12">
         <v>9.7013100000000005E-4</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>154.710001331</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>12</v>
       </c>
@@ -7080,12 +6737,8 @@
       <c r="I13">
         <v>9.67504E-4</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>154.29157320399997</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>13</v>
       </c>
@@ -7110,12 +6763,8 @@
       <c r="I14">
         <v>9.6464000000000001E-4</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>153.83521564</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>14</v>
       </c>
@@ -7140,12 +6789,8 @@
       <c r="I15">
         <v>9.6154200000000002E-4</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>153.34194954200001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>15</v>
       </c>
@@ -7170,12 +6815,8 @@
       <c r="I16">
         <v>9.58208E-4</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>152.81086510799992</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>16</v>
       </c>
@@ -7200,12 +6841,8 @@
       <c r="I17">
         <v>9.5463999999999998E-4</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>152.24297323999997</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>17</v>
       </c>
@@ -7230,15 +6867,11 @@
       <c r="I18">
         <v>9.5083799999999997E-4</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>151.63718323800001</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="V18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>18</v>
       </c>
@@ -7263,15 +6896,11 @@
       <c r="I19">
         <v>9.4680399999999998E-4</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>150.99560810400001</v>
-      </c>
-      <c r="W19" t="s">
+      <c r="V19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>19</v>
       </c>
@@ -7296,12 +6925,8 @@
       <c r="I20">
         <v>9.4253800000000003E-4</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>150.31624583799999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>20</v>
       </c>
@@ -7326,12 +6951,8 @@
       <c r="I21">
         <v>9.3804200000000004E-4</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>149.60111874199998</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>21</v>
       </c>
@@ -7356,12 +6977,8 @@
       <c r="I22">
         <v>9.3331499999999999E-4</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>148.84822671500004</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>22</v>
       </c>
@@ -7386,12 +7003,8 @@
       <c r="I23">
         <v>9.2836000000000004E-4</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>148.06057996000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>23</v>
       </c>
@@ -7416,12 +7029,8 @@
       <c r="I24">
         <v>9.2317699999999996E-4</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>147.235301677</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>24</v>
       </c>
@@ -7446,12 +7055,8 @@
       <c r="I25">
         <v>9.17767E-4</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>146.37537986699999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>25</v>
       </c>
@@ -7476,12 +7081,8 @@
       <c r="I26">
         <v>9.1213199999999996E-4</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>145.47874573199999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>26</v>
       </c>
@@ -7506,12 +7107,8 @@
       <c r="I27">
         <v>9.0627199999999996E-4</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>144.54751237200003</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>27</v>
       </c>
@@ -7536,12 +7133,8 @@
       <c r="I28">
         <v>9.0018900000000002E-4</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>143.58067788900001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>28</v>
       </c>
@@ -7566,12 +7159,8 @@
       <c r="I29">
         <v>8.9388399999999995E-4</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>142.57935454399998</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>29</v>
       </c>
@@ -7596,12 +7185,8 @@
       <c r="I30">
         <v>8.8735799999999998E-4</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>141.54237327799999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>30</v>
       </c>
@@ -7626,12 +7211,8 @@
       <c r="I31">
         <v>8.80611E-4</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>140.471034441</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>31</v>
       </c>
@@ -7656,12 +7237,8 @@
       <c r="I32">
         <v>8.7364699999999997E-4</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>139.36615994699997</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>32</v>
       </c>
@@ -7686,12 +7263,8 @@
       <c r="I33">
         <v>8.6646399999999995E-4</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
-        <v>138.22696910399998</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>33</v>
       </c>
@@ -7716,12 +7289,8 @@
       <c r="I34">
         <v>8.5906600000000002E-4</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
-        <v>137.05325494600001</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>34</v>
       </c>
@@ -7746,12 +7315,8 @@
       <c r="I35">
         <v>8.5145200000000005E-4</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>135.84735776200003</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>35</v>
       </c>
@@ -7776,12 +7341,8 @@
       <c r="I36">
         <v>8.4362399999999996E-4</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="0"/>
-        <v>134.60798748400001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>36</v>
       </c>
@@ -7806,12 +7367,8 @@
       <c r="I37">
         <v>8.3558299999999999E-4</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="0"/>
-        <v>133.335447413</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>37</v>
       </c>
@@ -7836,12 +7393,8 @@
       <c r="I38">
         <v>8.2733000000000004E-4</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="0"/>
-        <v>132.03067666999999</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>38</v>
       </c>
@@ -7866,12 +7419,8 @@
       <c r="I39">
         <v>8.18865E-4</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="0"/>
-        <v>130.69267726500004</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>39</v>
       </c>
@@ -7896,12 +7445,8 @@
       <c r="I40">
         <v>8.1019000000000002E-4</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="0"/>
-        <v>129.32456041</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>40</v>
       </c>
@@ -7926,12 +7471,8 @@
       <c r="I41">
         <v>8.0130399999999997E-4</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="0"/>
-        <v>127.923327214</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>41</v>
       </c>
@@ -7956,12 +7497,8 @@
       <c r="I42">
         <v>7.9221000000000001E-4</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="0"/>
-        <v>126.49204766999999</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>42</v>
       </c>
@@ -7986,12 +7523,8 @@
       <c r="I43">
         <v>7.8290599999999999E-4</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="0"/>
-        <v>125.02874509599999</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>43</v>
       </c>
@@ -8016,12 +7549,8 @@
       <c r="I44">
         <v>7.7339300000000004E-4</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="0"/>
-        <v>123.53549829299999</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>44</v>
       </c>
@@ -8046,12 +7575,8 @@
       <c r="I45">
         <v>7.6367000000000004E-4</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="0"/>
-        <v>122.01232046</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>45</v>
       </c>
@@ -8076,12 +7601,8 @@
       <c r="I46">
         <v>7.53738E-4</v>
       </c>
-      <c r="J46">
-        <f t="shared" si="0"/>
-        <v>120.45928168799999</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>46</v>
       </c>
@@ -8106,12 +7627,8 @@
       <c r="I47">
         <v>7.4359399999999998E-4</v>
       </c>
-      <c r="J47">
-        <f t="shared" si="0"/>
-        <v>118.87641378400001</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>47</v>
       </c>
@@ -8136,12 +7653,8 @@
       <c r="I48">
         <v>7.33239E-4</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="0"/>
-        <v>117.264776919</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>48</v>
       </c>
@@ -8166,12 +7679,8 @@
       <c r="I49">
         <v>7.2267000000000002E-4</v>
       </c>
-      <c r="J49">
-        <f t="shared" si="0"/>
-        <v>115.62443288</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>49</v>
       </c>
@@ -8196,12 +7705,8 @@
       <c r="I50">
         <v>7.1188499999999999E-4</v>
       </c>
-      <c r="J50">
-        <f t="shared" si="0"/>
-        <v>113.956011635</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>50</v>
       </c>
@@ -8226,12 +7731,8 @@
       <c r="I51">
         <v>7.0088099999999999E-4</v>
       </c>
-      <c r="J51">
-        <f t="shared" si="0"/>
-        <v>112.25949597099999</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>51</v>
       </c>
@@ -8256,12 +7757,8 @@
       <c r="I52">
         <v>6.8965400000000005E-4</v>
       </c>
-      <c r="J52">
-        <f t="shared" si="0"/>
-        <v>110.53560484399998</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>52</v>
       </c>
@@ -8286,12 +7783,8 @@
       <c r="I53">
         <v>6.7820000000000001E-4</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="0"/>
-        <v>108.78471079999998</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>53</v>
       </c>
@@ -8316,12 +7809,8 @@
       <c r="I54">
         <v>6.6651199999999996E-4</v>
       </c>
-      <c r="J54">
-        <f t="shared" si="0"/>
-        <v>107.00707457199999</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>54</v>
       </c>
@@ -8346,12 +7835,8 @@
       <c r="I55">
         <v>6.5458599999999997E-4</v>
       </c>
-      <c r="J55">
-        <f t="shared" si="0"/>
-        <v>105.20324579599999</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>55</v>
       </c>
@@ -8376,12 +7861,8 @@
       <c r="I56">
         <v>6.4241199999999997E-4</v>
       </c>
-      <c r="J56">
-        <f t="shared" si="0"/>
-        <v>103.37367478199999</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>56</v>
       </c>
@@ -8406,12 +7887,8 @@
       <c r="I57">
         <v>6.2998100000000005E-4</v>
       </c>
-      <c r="J57">
-        <f t="shared" si="0"/>
-        <v>101.51873313099999</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>57</v>
       </c>
@@ -8436,12 +7913,8 @@
       <c r="I58">
         <v>6.1728100000000001E-4</v>
       </c>
-      <c r="J58">
-        <f t="shared" si="0"/>
-        <v>99.638859901000018</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>58</v>
       </c>
@@ -8466,12 +7939,8 @@
       <c r="I59">
         <v>6.043E-4</v>
       </c>
-      <c r="J59">
-        <f t="shared" si="0"/>
-        <v>97.73453717000001</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>59</v>
       </c>
@@ -8496,12 +7965,8 @@
       <c r="I60">
         <v>5.9102199999999997E-4</v>
       </c>
-      <c r="J60">
-        <f t="shared" si="0"/>
-        <v>95.80621194199999</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>60</v>
       </c>
@@ -8526,12 +7991,8 @@
       <c r="I61">
         <v>5.7742700000000004E-4</v>
       </c>
-      <c r="J61">
-        <f t="shared" si="0"/>
-        <v>93.854245027000005</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>61</v>
       </c>
@@ -8556,12 +8017,8 @@
       <c r="I62">
         <v>5.6349500000000001E-4</v>
       </c>
-      <c r="J62">
-        <f t="shared" si="0"/>
-        <v>91.87920678499998</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>62</v>
       </c>
@@ -8586,12 +8043,8 @@
       <c r="I63">
         <v>5.4920000000000001E-4</v>
       </c>
-      <c r="J63">
-        <f t="shared" si="0"/>
-        <v>89.881443520000005</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>63</v>
       </c>
@@ -8616,12 +8069,8 @@
       <c r="I64">
         <v>5.3451300000000002E-4</v>
       </c>
-      <c r="J64">
-        <f t="shared" si="0"/>
-        <v>87.861425222999998</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>64</v>
       </c>
@@ -8646,12 +8095,8 @@
       <c r="I65">
         <v>5.19397E-4</v>
       </c>
-      <c r="J65">
-        <f t="shared" si="0"/>
-        <v>85.819818607000016</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>65</v>
       </c>
@@ -8676,12 +8121,8 @@
       <c r="I66">
         <v>5.03814E-4</v>
       </c>
-      <c r="J66">
-        <f t="shared" si="0"/>
-        <v>83.756781914000015</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>66</v>
       </c>
@@ -8706,12 +8147,8 @@
       <c r="I67">
         <v>4.8771399999999999E-4</v>
       </c>
-      <c r="J67">
-        <f t="shared" ref="J67:J101" si="1">SUM(C67:I67)</f>
-        <v>81.673070034000006</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>67</v>
       </c>
@@ -8736,12 +8173,8 @@
       <c r="I68">
         <v>4.7104100000000001E-4</v>
       </c>
-      <c r="J68">
-        <f t="shared" si="1"/>
-        <v>79.568949230999991</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>68</v>
       </c>
@@ -8766,12 +8199,8 @@
       <c r="I69">
         <v>4.5373000000000001E-4</v>
       </c>
-      <c r="J69">
-        <f t="shared" si="1"/>
-        <v>77.444884399999992</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>69</v>
       </c>
@@ -8796,12 +8225,8 @@
       <c r="I70">
         <v>4.3570399999999997E-4</v>
       </c>
-      <c r="J70">
-        <f t="shared" si="1"/>
-        <v>75.30154669400001</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>70</v>
       </c>
@@ -8826,12 +8251,8 @@
       <c r="I71">
         <v>4.1687099999999997E-4</v>
       </c>
-      <c r="J71">
-        <f t="shared" si="1"/>
-        <v>73.139189510999998</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>71</v>
       </c>
@@ -8856,12 +8277,8 @@
       <c r="I72">
         <v>3.9712599999999998E-4</v>
       </c>
-      <c r="J72">
-        <f t="shared" si="1"/>
-        <v>70.958482475999986</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>72</v>
       </c>
@@ -8886,12 +8303,8 @@
       <c r="I73">
         <v>3.7634399999999997E-4</v>
       </c>
-      <c r="J73">
-        <f t="shared" si="1"/>
-        <v>68.759651303999988</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>73</v>
       </c>
@@ -8916,12 +8329,8 @@
       <c r="I74">
         <v>3.5437799999999997E-4</v>
       </c>
-      <c r="J74">
-        <f t="shared" si="1"/>
-        <v>66.543303457999997</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>74</v>
       </c>
@@ -8946,12 +8355,8 @@
       <c r="I75">
         <v>3.3105899999999998E-4</v>
       </c>
-      <c r="J75">
-        <f t="shared" si="1"/>
-        <v>64.309970269000019</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>75</v>
       </c>
@@ -8976,12 +8381,8 @@
       <c r="I76">
         <v>3.0619099999999998E-4</v>
       </c>
-      <c r="J76">
-        <f t="shared" si="1"/>
-        <v>62.060009601000004</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>76</v>
       </c>
@@ -9006,12 +8407,8 @@
       <c r="I77">
         <v>2.7954999999999999E-4</v>
       </c>
-      <c r="J77">
-        <f t="shared" si="1"/>
-        <v>59.793867679999998</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>77</v>
       </c>
@@ -9036,12 +8433,8 @@
       <c r="I78">
         <v>2.5088699999999999E-4</v>
       </c>
-      <c r="J78">
-        <f t="shared" si="1"/>
-        <v>57.512010846999992</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>78</v>
       </c>
@@ -9066,12 +8459,8 @@
       <c r="I79">
         <v>2.1993499999999999E-4</v>
       </c>
-      <c r="J79">
-        <f t="shared" si="1"/>
-        <v>55.214965294999999</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>79</v>
       </c>
@@ -9096,12 +8485,8 @@
       <c r="I80">
         <v>1.8642299999999999E-4</v>
       </c>
-      <c r="J80">
-        <f t="shared" si="1"/>
-        <v>52.902994773000003</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>80</v>
       </c>
@@ -9126,12 +8511,8 @@
       <c r="I81">
         <v>1.50113E-4</v>
       </c>
-      <c r="J81">
-        <f t="shared" si="1"/>
-        <v>50.576595932999993</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>81</v>
       </c>
@@ -9156,12 +8537,8 @@
       <c r="I82">
         <v>1.10086E-4</v>
       </c>
-      <c r="J82">
-        <f t="shared" si="1"/>
-        <v>48.235531625999997</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>82</v>
       </c>
@@ -9186,12 +8563,8 @@
       <c r="I83" s="1">
         <v>8.1197299999999996E-5</v>
       </c>
-      <c r="J83">
-        <f t="shared" si="1"/>
-        <v>45.876274522300001</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>83</v>
       </c>
@@ -9216,12 +8589,8 @@
       <c r="I84" s="1">
         <v>6.0848099999999998E-5</v>
       </c>
-      <c r="J84">
-        <f t="shared" si="1"/>
-        <v>43.4998445811</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>84</v>
       </c>
@@ -9246,12 +8615,8 @@
       <c r="I85" s="1">
         <v>4.64944E-5</v>
       </c>
-      <c r="J85">
-        <f t="shared" si="1"/>
-        <v>41.107031925400001</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>85</v>
       </c>
@@ -9276,12 +8641,8 @@
       <c r="I86" s="1">
         <v>3.6295099999999997E-5</v>
       </c>
-      <c r="J86">
-        <f t="shared" si="1"/>
-        <v>38.698568121100003</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>86</v>
       </c>
@@ -9306,12 +8667,8 @@
       <c r="I87" s="1">
         <v>2.8952899999999999E-5</v>
       </c>
-      <c r="J87">
-        <f t="shared" si="1"/>
-        <v>36.275003962900009</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>87</v>
       </c>
@@ -9336,12 +8693,8 @@
       <c r="I88" s="1">
         <v>2.35684E-5</v>
       </c>
-      <c r="J88">
-        <f t="shared" si="1"/>
-        <v>33.837252474399996</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>88</v>
       </c>
@@ -9366,12 +8719,8 @@
       <c r="I89" s="1">
         <v>1.9525200000000001E-5</v>
       </c>
-      <c r="J89">
-        <f t="shared" si="1"/>
-        <v>31.386068053199995</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>89</v>
       </c>
@@ -9396,12 +8745,8 @@
       <c r="I90" s="1">
         <v>1.6403199999999999E-5</v>
       </c>
-      <c r="J90">
-        <f t="shared" si="1"/>
-        <v>28.922408915200002</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>90</v>
       </c>
@@ -9426,12 +8771,8 @@
       <c r="I91" s="1">
         <v>1.3916900000000001E-5</v>
       </c>
-      <c r="J91">
-        <f t="shared" si="1"/>
-        <v>26.447065425899996</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>91</v>
       </c>
@@ -9456,12 +8797,8 @@
       <c r="I92" s="1">
         <v>1.18718E-5</v>
       </c>
-      <c r="J92">
-        <f t="shared" si="1"/>
-        <v>23.9610963258</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>92</v>
       </c>
@@ -9486,12 +8823,8 @@
       <c r="I93" s="1">
         <v>1.01354E-5</v>
       </c>
-      <c r="J93">
-        <f t="shared" si="1"/>
-        <v>21.465437351399995</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>93</v>
       </c>
@@ -9516,12 +8849,8 @@
       <c r="I94" s="1">
         <v>8.6164799999999999E-6</v>
       </c>
-      <c r="J94">
-        <f t="shared" si="1"/>
-        <v>18.960929641479996</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>94</v>
       </c>
@@ -9546,12 +8875,8 @@
       <c r="I95" s="1">
         <v>7.2519199999999997E-6</v>
       </c>
-      <c r="J95">
-        <f t="shared" si="1"/>
-        <v>16.448622458919999</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>95</v>
       </c>
@@ -9576,12 +8901,8 @@
       <c r="I96" s="1">
         <v>5.9974100000000002E-6</v>
       </c>
-      <c r="J96">
-        <f t="shared" si="1"/>
-        <v>13.929569350410002</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>96</v>
       </c>
@@ -9606,12 +8927,8 @@
       <c r="I97" s="1">
         <v>4.8214000000000001E-6</v>
       </c>
-      <c r="J97">
-        <f t="shared" si="1"/>
-        <v>11.404826255</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>97</v>
       </c>
@@ -9636,12 +8953,8 @@
       <c r="I98" s="1">
         <v>3.7009399999999998E-6</v>
       </c>
-      <c r="J98">
-        <f t="shared" si="1"/>
-        <v>8.8753351904399995</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>98</v>
       </c>
@@ -9666,12 +8979,8 @@
       <c r="I99" s="1">
         <v>2.6188799999999999E-6</v>
       </c>
-      <c r="J99">
-        <f t="shared" si="1"/>
-        <v>6.3421544964800001</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>99</v>
       </c>
@@ -9696,12 +9005,8 @@
       <c r="I100" s="1">
         <v>1.5619100000000001E-6</v>
       </c>
-      <c r="J100">
-        <f t="shared" si="1"/>
-        <v>3.8063497232099999</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101">
         <v>100</v>
       </c>
@@ -9725,10 +9030,6 @@
       </c>
       <c r="I101" s="1">
         <v>5.1910800000000004E-7</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="1"/>
-        <v>1.2689603384679999</v>
       </c>
     </row>
   </sheetData>
